--- a/results/pvalue_SIDER_rare_pathway_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.283</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.581</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.513</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.583</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.238</t>
+          <t>13.099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.599</t>
+          <t>11.452</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>8.977</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>4.987</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.049</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.752</t>
+          <t>5.751</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.588</t>
+          <t>4.587</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.711</t>
+          <t>5.724</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.911</t>
+          <t>4.919</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.701</t>
+          <t>2.802</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
